--- a/Result/16264876383813422.xlsx
+++ b/Result/16264876383813422.xlsx
@@ -3954,7 +3954,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:15">
